--- a/02_要件定義/役割分担表.xlsx
+++ b/02_要件定義/役割分担表.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
     <sheet name="担当数" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">メイン!$C$6:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">メイン!$C$6:$G$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -50,16 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基本操作</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>難易度</t>
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
@@ -67,13 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バージョン管理</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>担当</t>
     <rPh sb="0" eb="2">
       <t>タントウ</t>
@@ -240,10 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アニメーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -495,6 +474,107 @@
     <t>最高</t>
     <rPh sb="0" eb="2">
       <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境整備</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載手順書</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テジュンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03_アニメーション.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>実施中</t>
+  </si>
+  <si>
+    <t>未着手</t>
+  </si>
+  <si>
+    <t>04_音楽.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_音楽.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_シーンおよび変数の引継ぎ.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04_シーンおよび変数の引継ぎ.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション（コマ絵）</t>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーションとコマ絵を紐づける</t>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05_オブジェクトの操作.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストのフォント調査</t>
+    <rPh sb="9" eb="11">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -637,29 +717,36 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作成者" refreshedDate="44612.858818749999" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="41">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作成者" refreshedDate="44647.066135532405" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="43">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D6:F47" sheet="メイン"/>
+    <worksheetSource ref="D6:H49" sheet="メイン" r:id="rId2"/>
   </cacheSource>
-  <cacheFields count="3">
+  <cacheFields count="5">
     <cacheField name="難易度" numFmtId="0">
       <sharedItems count="4">
         <s v="最高"/>
+        <s v="高"/>
         <s v="低"/>
-        <s v="高"/>
         <s v="中"/>
       </sharedItems>
     </cacheField>
     <cacheField name="担当" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="8">
         <s v="西尾"/>
         <s v="平根"/>
         <s v="後回し"/>
         <s v="立山"/>
         <s v="原"/>
+        <s v="-"/>
         <s v="藤田"/>
         <m u="1"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="記載手順書" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="状態" numFmtId="0">
+      <sharedItems/>
     </cacheField>
     <cacheField name="カウント用" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
@@ -674,246 +761,345 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="43">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+    <m/>
+    <s v="実施中"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <s v="未着手"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="2"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="03_アニメーション.xlsx"/>
+    <s v="完了"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="05_オブジェクトの操作.xlsx"/>
+    <s v="完了"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="03_アニメーション.xlsx"/>
+    <s v="完了"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <m/>
+    <s v="未着手"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <m/>
+    <s v="未着手"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
+    <s v="04_シーンおよび変数の引継ぎ.xlsx"/>
+    <s v="完了"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
+    <s v="04_シーンおよび変数の引継ぎ.xlsx"/>
+    <s v="完了"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="未着手"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
+    <s v="04_シーンおよび変数の引継ぎ.xlsx"/>
+    <s v="完了"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
+    <s v="04_シーンおよび変数の引継ぎ.xlsx"/>
+    <s v="完了"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <s v="未着手"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
+    <m/>
+    <s v="未着手"/>
     <n v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
+    <m/>
+    <s v="未着手"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+    <s v="未着手"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
+    <x v="5"/>
+    <s v="04_音楽.xlsx"/>
+    <s v="完了"/>
     <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
+    <s v="04_音楽.xlsx"/>
+    <s v="完了"/>
     <n v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="6"/>
+    <m/>
+    <s v="未着手"/>
     <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
+        <item x="1"/>
+        <item x="3"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="9">
         <item x="4"/>
         <item x="2"/>
-        <item x="5"/>
+        <item x="6"/>
         <item x="1"/>
         <item x="3"/>
-        <item m="1" x="6"/>
+        <item m="1" x="7"/>
         <item x="0"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -931,6 +1117,9 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -957,7 +1146,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="合計 / カウント用" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="合計 / カウント用" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1255,739 +1444,1022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F65"/>
+  <dimension ref="B3:H67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="21.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C41" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="C6:E47"/>
+  <autoFilter ref="C6:G50"/>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G50">
+      <formula1>"未着手,実施中,完了"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1995,53 +2467,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F11"/>
+  <dimension ref="A3:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" customWidth="1"/>
-    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -2049,17 +2519,15 @@
       <c r="C5" s="10">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
@@ -2071,92 +2539,112 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="10">
         <v>5</v>
       </c>
       <c r="C7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
       </c>
       <c r="D8" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
       </c>
       <c r="D9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B11" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="10">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D12" s="10">
         <v>9</v>
       </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>41</v>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/02_要件定義/役割分担表.xlsx
+++ b/02_要件定義/役割分担表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -11,17 +11,17 @@
     <sheet name="担当数" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">メイン!$C$6:$G$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">メイン!$C$6:$H$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -478,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開発環境整備</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基本操作</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,10 +568,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テキストのフォント調査</t>
-    <rPh sb="9" eb="11">
+    <t>開発環境整備(バージョン管理）</t>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト調査</t>
+    <rPh sb="4" eb="6">
       <t>チョウサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルド調査</t>
+    <rPh sb="3" eb="5">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平根</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -719,7 +749,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作成者" refreshedDate="44647.066135532405" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="43">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D6:H49" sheet="メイン" r:id="rId2"/>
+    <worksheetSource ref="D6:I49" sheet="メイン" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="難易度" numFmtId="0">
@@ -1067,7 +1097,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ﾋﾟﾎﾞｯﾄﾃｰﾌﾞﾙ2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -1444,23 +1474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H67"/>
+  <dimension ref="B3:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="31.109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="7" width="21.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="8" width="21.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1468,12 +1496,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1484,16 +1512,19 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
@@ -1504,16 +1535,17 @@
         <v>47</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -1522,16 +1554,17 @@
         <v>47</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -1540,14 +1573,15 @@
         <v>7</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1558,14 +1592,15 @@
         <v>61</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1576,14 +1611,15 @@
         <v>63</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1594,14 +1630,15 @@
         <v>63</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,14 +1652,15 @@
         <v>61</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1632,15 +1670,16 @@
       <c r="E14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1651,14 +1690,15 @@
         <v>65</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1669,16 +1709,17 @@
         <v>67</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>55</v>
@@ -1686,15 +1727,16 @@
       <c r="E17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
@@ -1704,37 +1746,39 @@
       <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="5"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>6</v>
@@ -1742,15 +1786,16 @@
       <c r="E20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="12"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
         <v>38</v>
       </c>
@@ -1760,15 +1805,16 @@
       <c r="E21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1781,15 +1827,16 @@
       <c r="E22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1799,15 +1846,16 @@
       <c r="E23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
         <v>14</v>
       </c>
@@ -1817,15 +1865,16 @@
       <c r="E24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="6"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1839,14 +1888,15 @@
         <v>65</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
@@ -1856,15 +1906,16 @@
       <c r="E26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F26" s="6"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1872,19 +1923,20 @@
         <v>57</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1894,37 +1946,39 @@
       <c r="E28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="5"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F29" s="12"/>
       <c r="G29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>6</v>
@@ -1932,15 +1986,16 @@
       <c r="E30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="12"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1953,15 +2008,16 @@
       <c r="E31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1971,15 +2027,16 @@
       <c r="E32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,14 +2050,15 @@
         <v>53</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
         <v>20</v>
       </c>
@@ -2008,19 +2066,20 @@
         <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
         <v>21</v>
       </c>
@@ -2028,19 +2087,20 @@
         <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C36" s="4" t="s">
         <v>22</v>
       </c>
@@ -2050,15 +2110,16 @@
       <c r="E36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F36" s="4"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
@@ -2068,15 +2129,16 @@
       <c r="E37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2084,19 +2146,20 @@
         <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>30</v>
       </c>
@@ -2107,19 +2170,20 @@
         <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
         <v>18</v>
       </c>
@@ -2130,14 +2194,15 @@
         <v>53</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
@@ -2148,14 +2213,15 @@
         <v>53</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H41" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C42" s="7" t="s">
         <v>31</v>
       </c>
@@ -2165,15 +2231,16 @@
       <c r="E42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F42" s="7"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C43" s="7" t="s">
         <v>37</v>
       </c>
@@ -2183,15 +2250,16 @@
       <c r="E43" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F43" s="7"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
         <v>45</v>
       </c>
@@ -2202,14 +2270,15 @@
         <v>65</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>32</v>
       </c>
@@ -2223,14 +2292,15 @@
         <v>65</v>
       </c>
       <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2241,17 +2311,18 @@
         <v>55</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H46" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2262,19 +2333,20 @@
         <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2282,19 +2354,20 @@
         <v>55</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H48" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
         <v>51</v>
       </c>
@@ -2305,19 +2378,20 @@
         <v>53</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H49" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -2326,137 +2400,163 @@
         <v>67</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C52" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="C6:G50"/>
+  <autoFilter ref="C6:H51"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H50">
       <formula1>"未着手,実施中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2469,7 +2569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2611,7 +2713,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
